--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang2/01.NhanBH/NBH210226_DLAnhVan.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang2/01.NhanBH/NBH210226_DLAnhVan.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t xml:space="preserve">STT </t>
   </si>
@@ -84,10 +84,13 @@
     <t>H</t>
   </si>
   <si>
-    <t>Hà Nội, ngày 26 tháng 02 Năm 2021</t>
-  </si>
-  <si>
     <t>Tên cty/ cá nhân: ĐL Anh Văn</t>
+  </si>
+  <si>
+    <t>sim</t>
+  </si>
+  <si>
+    <t>Hà Nội, ngày 03 tháng 03 Năm 2021</t>
   </si>
 </sst>
 </file>
@@ -485,6 +488,45 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -523,45 +565,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -919,7 +922,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D12" sqref="D12:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -936,92 +939,92 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="6"/>
       <c r="B1" s="7"/>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="32"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="45"/>
     </row>
     <row r="2" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
       <c r="B2" s="9"/>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="34"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="47"/>
     </row>
     <row r="3" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
       <c r="B3" s="9"/>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="34"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="47"/>
     </row>
     <row r="4" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="B4" s="11"/>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="36"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="49"/>
     </row>
     <row r="5" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="28"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="41"/>
     </row>
     <row r="6" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="23"/>
-      <c r="B6" s="46" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="47"/>
+      <c r="B6" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="34"/>
     </row>
     <row r="7" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="38"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="51"/>
     </row>
     <row r="8" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="43"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="30"/>
     </row>
     <row r="9" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14"/>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="45"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="32"/>
     </row>
     <row r="10" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
@@ -1053,35 +1056,37 @@
       <c r="C11" s="21">
         <v>868183033815544</v>
       </c>
-      <c r="D11" s="4"/>
+      <c r="D11" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="E11" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="50" t="s">
+      <c r="A12" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="51"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="29"/>
-      <c r="F12" s="30"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="42"/>
+      <c r="F12" s="43"/>
     </row>
     <row r="13" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15"/>
-      <c r="B13" s="49" t="s">
+      <c r="B13" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="49"/>
-      <c r="D13" s="39" t="s">
+      <c r="C13" s="36"/>
+      <c r="D13" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="39"/>
-      <c r="F13" s="40"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="27"/>
     </row>
     <row r="14" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
@@ -1117,16 +1122,16 @@
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="48" t="s">
+      <c r="A18" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="48"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="41" t="s">
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
     </row>
     <row r="19" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="18"/>
@@ -1154,6 +1159,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="B7:F7"/>
     <mergeCell ref="D13:F13"/>
     <mergeCell ref="D18:F18"/>
     <mergeCell ref="B8:F8"/>
@@ -1162,13 +1174,6 @@
     <mergeCell ref="A18:C18"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="B7:F7"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
